--- a/data/Output/楽屋/店舗情報まとめ.xlsx
+++ b/data/Output/楽屋/店舗情報まとめ.xlsx
@@ -1575,7 +1575,7 @@
         <v>5459.521739130435</v>
       </c>
       <c r="H2" t="n">
-        <v>1255690</v>
+        <v>2729.760869565217</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1601,7 +1601,7 @@
         <v>5230.306122448979</v>
       </c>
       <c r="H3" t="n">
-        <v>768855</v>
+        <v>2615.15306122449</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1627,7 +1627,7 @@
         <v>5437.127659574468</v>
       </c>
       <c r="H4" t="n">
-        <v>511090</v>
+        <v>2718.563829787234</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1653,7 +1653,7 @@
         <v>8052.649006622517</v>
       </c>
       <c r="H5" t="n">
-        <v>405316.6666666667</v>
+        <v>2684.216335540839</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1679,7 +1679,7 @@
         <v>10911.13402061856</v>
       </c>
       <c r="H6" t="n">
-        <v>264595</v>
+        <v>2727.783505154639</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1705,7 +1705,7 @@
         <v>7336.363636363636</v>
       </c>
       <c r="H7" t="n">
-        <v>161400</v>
+        <v>2445.454545454545</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1731,7 +1731,7 @@
         <v>14254.11764705882</v>
       </c>
       <c r="H8" t="n">
-        <v>145392</v>
+        <v>2850.823529411765</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1757,7 +1757,7 @@
         <v>10048.78787878788</v>
       </c>
       <c r="H9" t="n">
-        <v>82902.5</v>
+        <v>2512.19696969697</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1783,7 +1783,7 @@
         <v>9248.4375</v>
       </c>
       <c r="H10" t="n">
-        <v>73987.5</v>
+        <v>2312.109375</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1809,7 +1809,7 @@
         <v>8583.6</v>
       </c>
       <c r="H11" t="n">
-        <v>71530</v>
+        <v>2861.2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1835,7 +1835,7 @@
         <v>14090.90909090909</v>
       </c>
       <c r="H12" t="n">
-        <v>51666.66666666666</v>
+        <v>2348.484848484848</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1861,7 +1861,7 @@
         <v>8760.588235294117</v>
       </c>
       <c r="H13" t="n">
-        <v>49643.33333333334</v>
+        <v>2920.196078431372</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1887,7 +1887,7 @@
         <v>13075.38461538462</v>
       </c>
       <c r="H14" t="n">
-        <v>33996</v>
+        <v>2615.076923076923</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1913,7 +1913,7 @@
         <v>10465.83333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>25118</v>
+        <v>2093.166666666667</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1939,7 +1939,7 @@
         <v>17951.11111111111</v>
       </c>
       <c r="H16" t="n">
-        <v>23080</v>
+        <v>2564.444444444444</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1965,7 +1965,7 @@
         <v>9953.75</v>
       </c>
       <c r="H17" t="n">
-        <v>19907.5</v>
+        <v>2488.4375</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1991,7 +1991,7 @@
         <v>10950</v>
       </c>
       <c r="H18" t="n">
-        <v>12775</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2017,7 +2017,7 @@
         <v>8997.142857142857</v>
       </c>
       <c r="H19" t="n">
-        <v>15745</v>
+        <v>2249.285714285714</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2043,7 +2043,7 @@
         <v>16473.33333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>12355</v>
+        <v>2059.166666666667</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2095,7 +2095,7 @@
         <v>5136</v>
       </c>
       <c r="H22" t="n">
-        <v>5136</v>
+        <v>1027.2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2121,7 +2121,7 @@
         <v>-2627.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3503.333333333333</v>
+        <v>875.8333333333334</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2147,7 +2147,7 @@
         <v>26160</v>
       </c>
       <c r="H24" t="n">
-        <v>11626.66666666667</v>
+        <v>2906.666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2173,7 +2173,7 @@
         <v>9747.5</v>
       </c>
       <c r="H25" t="n">
-        <v>7798</v>
+        <v>1949.5</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2199,7 +2199,7 @@
         <v>16015</v>
       </c>
       <c r="H26" t="n">
-        <v>10676.66666666667</v>
+        <v>2669.166666666667</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2225,7 +2225,7 @@
         <v>-1547.5</v>
       </c>
       <c r="H27" t="n">
-        <v>3095</v>
+        <v>773.75</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2251,7 +2251,7 @@
         <v>14953.33333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>8972</v>
+        <v>2990.666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2277,7 +2277,7 @@
         <v>-506.6666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>760</v>
+        <v>253.3333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2303,7 +2303,7 @@
         <v>8020</v>
       </c>
       <c r="H30" t="n">
-        <v>24060</v>
+        <v>8020</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2329,7 +2329,7 @@
         <v>28816.66666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>8645</v>
+        <v>2881.666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2355,7 +2355,7 @@
         <v>18113.33333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>7762.857142857143</v>
+        <v>2587.619047619047</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2381,7 +2381,7 @@
         <v>32185</v>
       </c>
       <c r="H33" t="n">
-        <v>4951.538461538462</v>
+        <v>2475.769230769231</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2407,7 +2407,7 @@
         <v>19160</v>
       </c>
       <c r="H34" t="n">
-        <v>5474.285714285715</v>
+        <v>2737.142857142857</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2433,7 +2433,7 @@
         <v>19680</v>
       </c>
       <c r="H35" t="n">
-        <v>6560</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2459,7 +2459,7 @@
         <v>11510</v>
       </c>
       <c r="H36" t="n">
-        <v>2877.5</v>
+        <v>1438.75</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2485,7 +2485,7 @@
         <v>39185</v>
       </c>
       <c r="H37" t="n">
-        <v>6530.833333333333</v>
+        <v>3265.416666666667</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2511,7 +2511,7 @@
         <v>8350</v>
       </c>
       <c r="H38" t="n">
-        <v>1518.181818181818</v>
+        <v>759.0909090909091</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2537,7 +2537,7 @@
         <v>24290</v>
       </c>
       <c r="H39" t="n">
-        <v>6072.5</v>
+        <v>3036.25</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2563,7 +2563,7 @@
         <v>-3850</v>
       </c>
       <c r="H40" t="n">
-        <v>3850</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2589,7 +2589,7 @@
         <v>26875</v>
       </c>
       <c r="H41" t="n">
-        <v>5375</v>
+        <v>2687.5</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2615,7 +2615,7 @@
         <v>9220</v>
       </c>
       <c r="H42" t="n">
-        <v>3073.333333333333</v>
+        <v>1536.666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:8">
